--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e_dav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537A973A-6542-418F-957E-A9606E1C9136}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -354,15 +357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -378,7 +381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -386,12 +389,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -399,7 +402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -407,7 +410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -415,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -423,35 +426,66 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537A973A-6542-418F-957E-A9606E1C9136}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D18B4C-C435-4044-85A3-C862124EE886}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
   <si>
     <t>a</t>
   </si>
@@ -360,7 +360,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,6 +393,9 @@
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -401,6 +404,9 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -409,6 +415,9 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -417,6 +426,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -425,6 +437,9 @@
       <c r="B8" t="s">
         <v>3</v>
       </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -432,6 +447,9 @@
       </c>
       <c r="B9" t="s">
         <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8D18B4C-C435-4044-85A3-C862124EE886}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022BFD42-9095-407A-9DCB-B5D34F87D71B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
@@ -357,47 +360,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -407,8 +431,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -418,8 +445,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -430,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -441,7 +471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -452,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -460,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -471,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -482,12 +512,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -498,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{022BFD42-9095-407A-9DCB-B5D34F87D71B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057EB9B3-12BF-44E8-BFB6-7651F91B66B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
   <si>
     <t>a</t>
   </si>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -459,6 +459,9 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -470,6 +473,9 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -480,6 +486,9 @@
       </c>
       <c r="D9" t="s">
         <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,6 +497,9 @@
       </c>
       <c r="B10" t="s">
         <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{057EB9B3-12BF-44E8-BFB6-7651F91B66B4}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189BA5C8-58A8-468D-BD16-11722FD0A165}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="7">
   <si>
     <t>a</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -360,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,6 +515,9 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -523,10 +529,16 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,6 +551,9 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -546,6 +561,29 @@
       </c>
       <c r="D15" t="s">
         <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189BA5C8-58A8-468D-BD16-11722FD0A165}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC1FEEE-5371-44DC-ABCB-CD7F76826B1A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
   <si>
     <t>a</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,8 +387,11 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -398,8 +404,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -412,8 +421,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -423,8 +435,11 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -437,8 +452,11 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -451,8 +469,11 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -465,8 +486,11 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -479,8 +503,11 @@
       <c r="E8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -494,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -504,8 +531,11 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -518,8 +548,11 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -533,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -541,7 +574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -555,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -566,7 +599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>6</v>
       </c>

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FC1FEEE-5371-44DC-ABCB-CD7F76826B1A}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC575D67-2EBB-43D5-8F10-B19F7B19AE46}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
   <si>
     <t>a</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -366,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,8 +399,20 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -408,7 +429,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -425,7 +446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -439,7 +460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -456,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -473,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -490,7 +511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -507,7 +528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -521,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -535,7 +556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -552,7 +573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -566,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -574,7 +595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -588,7 +609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -599,7 +620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>6</v>
       </c>

--- a/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
+++ b/Nuevo Hoja de cálculo de Microsoft Exce22222222222l.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5828a9b8adc7f405/Escritorio/Git/Prueba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC575D67-2EBB-43D5-8F10-B19F7B19AE46}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{5BE7BFD8-A4C0-4F3A-B855-2EF132F22058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC5E85F8-815A-4EA6-8962-62BF9375A5B7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -375,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,8 +429,26 @@
       <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -429,7 +465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -446,7 +482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -460,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -477,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -494,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -511,7 +547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -528,7 +564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -542,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -556,7 +592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>3</v>
       </c>
@@ -573,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -587,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>4</v>
       </c>
@@ -595,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -609,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -620,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>6</v>
       </c>
